--- a/uploads/Database.xlsx
+++ b/uploads/Database.xlsx
@@ -1,34 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\4msys\Database_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF7FEEF-F4F7-42D8-A49C-1835C2AC35E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6B2C3-E1E5-4EDB-B57D-F77351A6E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C65C2FAC-D3E7-48A5-976E-D84AF433208A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
     <sheet name="Matching" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +32,7 @@
     <author>김재환</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{BCF0EE3F-026B-4A7B-AA4A-436E2978C0C9}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{2455883F-6031-4BE4-A628-445111CFA0ED}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{A028F591-1B3E-40CE-A69D-B79CD6914F80}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{6A82C9BC-AF9E-448A-8FA9-40A18A9B249D}">
+    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{1365BABC-B52F-4265-9986-3296266FDDD6}">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{29901B30-4443-4E9E-A6F5-B707887331C8}">
+    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +425,7 @@
     <author>김재환</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{51CC075E-3412-496E-B9FC-D8912AE9C149}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A56FA862-A982-4E05-8DE0-DD345573E5C9}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +581,913 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5EEA3BBC-40BB-4C40-BD0F-B41F16C477F0}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0DEA47A9-E726-4C3D-8A17-3CC750401DCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Action</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Master</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Slave</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>행동을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택한다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 
+Insert: log</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삽입
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Update: log</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>갱신</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나머지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재할때만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>갱신</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert_ecosian: ecosian</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형태로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삽입하나</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+Update_ecosian: ecosian</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형태로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ctrl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가져오고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ctrl=null, regid=0,updid=0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처리</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7A27E126-C552-421E-B282-4DE029E3F2F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에코시안</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Action</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+M_Site_Cd</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용한다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>즉</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에코시안으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> insert</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표시하고</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반적인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> update</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비워준다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -689,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A6DD8617-32BE-4693-B2BF-DCFE665D4E75}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -751,7 +1648,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>DB_Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -769,10 +1666,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>objectname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>logvalue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -830,11 +1723,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터를 보낼 타 DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -866,15 +1759,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t2-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2-b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t2-c</t>
+    <t>데이터를 보낼 타 DB(postgre)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -882,31 +1767,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
+    <t>realtime_table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.106</t>
+    <t>object_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postbems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>posttable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>logtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>val</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
+    <t>4MSYS 화재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 습도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS pm2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS pm10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS co2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS o2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prmt_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121.140.99.242</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1q2w3e4rQQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn_data_prmt_raw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -914,8 +1847,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postgres</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>act_tm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Site_Cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_ecosian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tn_data_prmt_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -973,7 +1938,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,13 +1957,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1007,15 +2011,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1026,7 +2024,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,182 +2358,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7780DB32-850D-4D7F-9E3E-1371178620CB}">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.9140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.4140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.4140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.9140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="2" customWidth="1"/>
-    <col min="20" max="21" width="8.6640625" style="2"/>
-    <col min="22" max="22" width="14.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.83203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16" style="2" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="16" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="5.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="9" customWidth="1"/>
+    <col min="18" max="18" width="8.25" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="7" customWidth="1"/>
+    <col min="20" max="21" width="8.58203125" style="7"/>
+    <col min="22" max="22" width="14.33203125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="17.83203125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="16" style="7" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="16" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="8.58203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>3306</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
-        <v>123123</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5432</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="P3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5432</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1">
-        <v>5432</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
+      <c r="M4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1529,42 +2610,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB6490-BA61-4757-9177-21D264AA5706}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>19</v>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1574,14 +2662,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>1001030001</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1592,13 +2685,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>1001030002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1609,13 +2708,133 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>1001030003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>1001030004</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>1001030005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>1001030006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>1001030007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
